--- a/data/hotels_by_city/Houston/Houston_shard_519.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_519.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d107999-Reviews-Quality_Inn_Suites_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Quality-Inn-Suites-West-Energy-Corridor.h41175.Hotel-Information?chkin=7%2F22%2F2018&amp;chkout=7%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531446409801&amp;cancellable=false&amp;regionId=1503&amp;vip=false&amp;c=f07c4423-ccf4-4375-a04a-f918c8eec9f6&amp;mctc=9&amp;exp_dp=85.5&amp;exp_ts=1531446410303&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,317 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107999-r451422478-Quality_Inn_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107999</t>
+  </si>
+  <si>
+    <t>451422478</t>
+  </si>
+  <si>
+    <t>01/12/2017</t>
+  </si>
+  <si>
+    <t>Quiet Hotel, Great for long business stay</t>
+  </si>
+  <si>
+    <t>I was given an upgrade to a jacuzzi suite and greeted warmly at reception. I did have a couple of small issues, but when I brought them to the management's attention they were corrected immediately and without an attitude.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107999-r406240933-Quality_Inn_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>406240933</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>First Choice Hotel</t>
+  </si>
+  <si>
+    <t>Me and my friends were going to visit NASA from the state of New York. The night before we went to visit NASA we decided to stay at this hotel. When we first walked into the hotel, everything was nice and decorative. We quickly got a room and settled in and fell asleep. The room was spacious and the furniture was clean. The next day, we went to the breakfast area, where we found a great variety of foods (fruits, cereal, etc.). Thereafter, we checked out and departed. All in all the staff was very helpful and friendly, and the rooms were clean and spacious. Pros- Spacious and clean rooms- Great breakfast- Affordable room rate- Helpful and friendly staffCons- Outdoor hotel (No elevator)MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Me and my friends were going to visit NASA from the state of New York. The night before we went to visit NASA we decided to stay at this hotel. When we first walked into the hotel, everything was nice and decorative. We quickly got a room and settled in and fell asleep. The room was spacious and the furniture was clean. The next day, we went to the breakfast area, where we found a great variety of foods (fruits, cereal, etc.). Thereafter, we checked out and departed. All in all the staff was very helpful and friendly, and the rooms were clean and spacious. Pros- Spacious and clean rooms- Great breakfast- Affordable room rate- Helpful and friendly staffCons- Outdoor hotel (No elevator)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107999-r399756364-Quality_Inn_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>399756364</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>It's Nice To Be Surprised</t>
+  </si>
+  <si>
+    <t>July 28, 2016 - approximately 4:00pm - We have been staying at Quality Inns and Super 8's all across the country this summer and when we arrived in Houston there were so many places to choose to stay at. BUT! Because we came in on 45 and then having to work our way over to 6 due to missing an exit, with the heat and gridlock traffic, we relied on what we knew - the Quality Inn.
+While my husband was taking care of some business I called over to the Quality located on Hwy 6 South. Angie answered the phone. She was willing to look for a room on the ground floor, 1 bed, 2 adults, non smoking, no pets. She said that they had several and would check with the maids to see which ones were ready to rent and to call her back in about 15 mins. So I did.
+When I called back, an Eastern Indian gentleman answered the phone and said that Angie was still checking the rooms but they had something that we would like and gave me directions to the Inn.
+When we arrived, we asked for Angie and found that she was still with the maids and the gentlemen that had talked to me on the phone asked us to take a seat and he would be right with us while he checked in another customer.
+Angie came in while we were...July 28, 2016 - approximately 4:00pm - We have been staying at Quality Inns and Super 8's all across the country this summer and when we arrived in Houston there were so many places to choose to stay at. BUT! Because we came in on 45 and then having to work our way over to 6 due to missing an exit, with the heat and gridlock traffic, we relied on what we knew - the Quality Inn.While my husband was taking care of some business I called over to the Quality located on Hwy 6 South. Angie answered the phone. She was willing to look for a room on the ground floor, 1 bed, 2 adults, non smoking, no pets. She said that they had several and would check with the maids to see which ones were ready to rent and to call her back in about 15 mins. So I did.When I called back, an Eastern Indian gentleman answered the phone and said that Angie was still checking the rooms but they had something that we would like and gave me directions to the Inn.When we arrived, we asked for Angie and found that she was still with the maids and the gentlemen that had talked to me on the phone asked us to take a seat and he would be right with us while he checked in another customer.Angie came in while we were being checked in. Once again, we went ahead and took the room they gave us without looking at it first (broke my own rule) and got the key card.Upon entering the room (101) we were amazed at the size. The gentlemen had told me that the room was spacious and he didn't lie. This room was HUGE. It had the living room section and plenty of walking around room, plus a king size bed, microwave and fridge. We don't stay in 5 star hotels and this has been the best room we have stayed in since we have been on the road this summer.Now, to clarify something. The motel is in need of updating. It shows it's wear and tear and not everything is perfect. BUT, the fact that the couple who checked us in were so kind and generous and gave us a good price on the room, we were satisfied with what we got and the room was clean and comfortable. We would later find out that these were the new owners.Babu is the husband and he is very gracious. According to Angie, they are in the process of getting the motel up to speed and changes are being made. She went on to say that good housekeeping help is hard to find and that what they are trying to do is taking time, but they are making progress.Since we were staying next to the office, we were close to the main drag and it wasn't that quiet, but that was okay considering the room itself.The laundry worked here and there was plenty of ice, which was great. The motel wasn't that crowded, which was good for me. The breakfast was good, they had scrambled eggs, sausage links, patties and bacon. Bagels, english muffins, waffles, cereal, toast, oatmeal, etc. Juice and coffee. There was probably more, I just didn't see it. The last Quality Inn and this one were doing breakfast from 6:30 to 9:30am.The motel needs work and some TLC, but I believe the right people have it and they will care for it. It has potential. We enjoyed our stay which were originally only for 1 night and turned into 3 days.Thank you Babu (and his wife) and Angie, if we are ever back in Houston we will definitely stay with you.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 28, 2016 - approximately 4:00pm - We have been staying at Quality Inns and Super 8's all across the country this summer and when we arrived in Houston there were so many places to choose to stay at. BUT! Because we came in on 45 and then having to work our way over to 6 due to missing an exit, with the heat and gridlock traffic, we relied on what we knew - the Quality Inn.
+While my husband was taking care of some business I called over to the Quality located on Hwy 6 South. Angie answered the phone. She was willing to look for a room on the ground floor, 1 bed, 2 adults, non smoking, no pets. She said that they had several and would check with the maids to see which ones were ready to rent and to call her back in about 15 mins. So I did.
+When I called back, an Eastern Indian gentleman answered the phone and said that Angie was still checking the rooms but they had something that we would like and gave me directions to the Inn.
+When we arrived, we asked for Angie and found that she was still with the maids and the gentlemen that had talked to me on the phone asked us to take a seat and he would be right with us while he checked in another customer.
+Angie came in while we were...July 28, 2016 - approximately 4:00pm - We have been staying at Quality Inns and Super 8's all across the country this summer and when we arrived in Houston there were so many places to choose to stay at. BUT! Because we came in on 45 and then having to work our way over to 6 due to missing an exit, with the heat and gridlock traffic, we relied on what we knew - the Quality Inn.While my husband was taking care of some business I called over to the Quality located on Hwy 6 South. Angie answered the phone. She was willing to look for a room on the ground floor, 1 bed, 2 adults, non smoking, no pets. She said that they had several and would check with the maids to see which ones were ready to rent and to call her back in about 15 mins. So I did.When I called back, an Eastern Indian gentleman answered the phone and said that Angie was still checking the rooms but they had something that we would like and gave me directions to the Inn.When we arrived, we asked for Angie and found that she was still with the maids and the gentlemen that had talked to me on the phone asked us to take a seat and he would be right with us while he checked in another customer.Angie came in while we were being checked in. Once again, we went ahead and took the room they gave us without looking at it first (broke my own rule) and got the key card.Upon entering the room (101) we were amazed at the size. The gentlemen had told me that the room was spacious and he didn't lie. This room was HUGE. It had the living room section and plenty of walking around room, plus a king size bed, microwave and fridge. We don't stay in 5 star hotels and this has been the best room we have stayed in since we have been on the road this summer.Now, to clarify something. The motel is in need of updating. It shows it's wear and tear and not everything is perfect. BUT, the fact that the couple who checked us in were so kind and generous and gave us a good price on the room, we were satisfied with what we got and the room was clean and comfortable. We would later find out that these were the new owners.Babu is the husband and he is very gracious. According to Angie, they are in the process of getting the motel up to speed and changes are being made. She went on to say that good housekeeping help is hard to find and that what they are trying to do is taking time, but they are making progress.Since we were staying next to the office, we were close to the main drag and it wasn't that quiet, but that was okay considering the room itself.The laundry worked here and there was plenty of ice, which was great. The motel wasn't that crowded, which was good for me. The breakfast was good, they had scrambled eggs, sausage links, patties and bacon. Bagels, english muffins, waffles, cereal, toast, oatmeal, etc. Juice and coffee. There was probably more, I just didn't see it. The last Quality Inn and this one were doing breakfast from 6:30 to 9:30am.The motel needs work and some TLC, but I believe the right people have it and they will care for it. It has potential. We enjoyed our stay which were originally only for 1 night and turned into 3 days.Thank you Babu (and his wife) and Angie, if we are ever back in Houston we will definitely stay with you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107999-r287465984-Quality_Inn_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>287465984</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>Ok hotel, don't expect much</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights on business. This is a pretty bare bones hotel. It's the cheapest in the area, but I'm sure for a couple more dollars a night you might be able to find much better.Pros- Area- Price- Staff are nice- Bed sheets cleanCons- Room wasn't very comfortable- Cleanliness was questionable, carpets felt dirty, bed skirt had holes, shower drain was clogged- Bed was very loud- Furniture in the room looked extremely old and stained- Air conditioners were extremely loud, bring ear plugsIt meets the bare minimum for hotel rooms, so if you're not picky you'll be fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Mukesh P, Manager at Quality Inn &amp; Suites West - Energy Corridor, responded to this reviewResponded July 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights on business. This is a pretty bare bones hotel. It's the cheapest in the area, but I'm sure for a couple more dollars a night you might be able to find much better.Pros- Area- Price- Staff are nice- Bed sheets cleanCons- Room wasn't very comfortable- Cleanliness was questionable, carpets felt dirty, bed skirt had holes, shower drain was clogged- Bed was very loud- Furniture in the room looked extremely old and stained- Air conditioners were extremely loud, bring ear plugsIt meets the bare minimum for hotel rooms, so if you're not picky you'll be fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107999-r268391128-Quality_Inn_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>268391128</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>very nice ... Peaceful Enviornment but also surrounded by nice shopping area. excellent customer Service. Visited last week.. Staff is so helpful to give you the information around the area.10 out of 10</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107999-r247689314-Quality_Inn_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>247689314</t>
+  </si>
+  <si>
+    <t>01/05/2015</t>
+  </si>
+  <si>
+    <t>Please pass this hotel by and go to the next one you won't be sorry</t>
+  </si>
+  <si>
+    <t>Hotel staff advised they had remodeled in last 2 years.  This is not true.  I do not think this hotel has ever been remodeled.  The only upgrade I  could see might be the flat screen television that was held in the upright position with the styrofoam from the box it came in.  The stand was broken but was in the room.  You could see out the door through the door seal.  The weatherstripping was flopping in and out of the door.  I refused to walk on the carpet in bare feet.  The microwave did not fit in the shelf so they propped it on the room safe which you are charged for but not told about till you leave.  The sheets ironically were clean but the bed was springy as one could imagine.  I am still using a heating pad for my back and it has been 4 days now.  The lid to the toilet tank was broken into three pieces but it was taped with wide gray tape and covered with a towel that was so thin I doubt it could be used for anything else.  There is no privacy between rooms either next to you or above.  You can literally hear entire conversations.  I was told they have a big breakfast that is free with the rental.  I did not partake but on the day of checkout I noticed the locals were stopping in for breakfast and coffee....Hotel staff advised they had remodeled in last 2 years.  This is not true.  I do not think this hotel has ever been remodeled.  The only upgrade I  could see might be the flat screen television that was held in the upright position with the styrofoam from the box it came in.  The stand was broken but was in the room.  You could see out the door through the door seal.  The weatherstripping was flopping in and out of the door.  I refused to walk on the carpet in bare feet.  The microwave did not fit in the shelf so they propped it on the room safe which you are charged for but not told about till you leave.  The sheets ironically were clean but the bed was springy as one could imagine.  I am still using a heating pad for my back and it has been 4 days now.  The lid to the toilet tank was broken into three pieces but it was taped with wide gray tape and covered with a towel that was so thin I doubt it could be used for anything else.  There is no privacy between rooms either next to you or above.  You can literally hear entire conversations.  I was told they have a big breakfast that is free with the rental.  I did not partake but on the day of checkout I noticed the locals were stopping in for breakfast and coffee.  The line was so long I doubt the paying hotel guest could get to the food before it was gone.  I waited at the desk for sometime to checkout.  Then a gentleman who was dressed quite casually that I noticed was fixing him a plate because he glanced at me a couple of times finally came to the desk sat down his food and decided to assist me.  No thank you, come back or anything else.  I would like to give this hotel a little benefit of the doubt but that just is not possible.  At least the sidewalks were lit and the internet was free that is if you could get onto it.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>BestServiceForYou, Manager at Quality Inn &amp; Suites West - Energy Corridor, responded to this reviewResponded January 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2015</t>
+  </si>
+  <si>
+    <t>Hotel staff advised they had remodeled in last 2 years.  This is not true.  I do not think this hotel has ever been remodeled.  The only upgrade I  could see might be the flat screen television that was held in the upright position with the styrofoam from the box it came in.  The stand was broken but was in the room.  You could see out the door through the door seal.  The weatherstripping was flopping in and out of the door.  I refused to walk on the carpet in bare feet.  The microwave did not fit in the shelf so they propped it on the room safe which you are charged for but not told about till you leave.  The sheets ironically were clean but the bed was springy as one could imagine.  I am still using a heating pad for my back and it has been 4 days now.  The lid to the toilet tank was broken into three pieces but it was taped with wide gray tape and covered with a towel that was so thin I doubt it could be used for anything else.  There is no privacy between rooms either next to you or above.  You can literally hear entire conversations.  I was told they have a big breakfast that is free with the rental.  I did not partake but on the day of checkout I noticed the locals were stopping in for breakfast and coffee....Hotel staff advised they had remodeled in last 2 years.  This is not true.  I do not think this hotel has ever been remodeled.  The only upgrade I  could see might be the flat screen television that was held in the upright position with the styrofoam from the box it came in.  The stand was broken but was in the room.  You could see out the door through the door seal.  The weatherstripping was flopping in and out of the door.  I refused to walk on the carpet in bare feet.  The microwave did not fit in the shelf so they propped it on the room safe which you are charged for but not told about till you leave.  The sheets ironically were clean but the bed was springy as one could imagine.  I am still using a heating pad for my back and it has been 4 days now.  The lid to the toilet tank was broken into three pieces but it was taped with wide gray tape and covered with a towel that was so thin I doubt it could be used for anything else.  There is no privacy between rooms either next to you or above.  You can literally hear entire conversations.  I was told they have a big breakfast that is free with the rental.  I did not partake but on the day of checkout I noticed the locals were stopping in for breakfast and coffee.  The line was so long I doubt the paying hotel guest could get to the food before it was gone.  I waited at the desk for sometime to checkout.  Then a gentleman who was dressed quite casually that I noticed was fixing him a plate because he glanced at me a couple of times finally came to the desk sat down his food and decided to assist me.  No thank you, come back or anything else.  I would like to give this hotel a little benefit of the doubt but that just is not possible.  At least the sidewalks were lit and the internet was free that is if you could get onto it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107999-r209404603-Quality_Inn_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209404603</t>
+  </si>
+  <si>
+    <t>06/08/2014</t>
+  </si>
+  <si>
+    <t>Three nights; no problems!</t>
+  </si>
+  <si>
+    <t>We spent three nights in this hotel while moving my granddaughter into an apartment nearby. Everything was very nice. Our room was clean and safe and comfortable. Breakfasts were filling and sufficient. My brother stayed in a room  here at the same time. He, too, was pleased.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>BestServiceForYou, Manager at Quality Inn &amp; Suites West - Energy Corridor, responded to this reviewResponded June 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2014</t>
+  </si>
+  <si>
+    <t>We spent three nights in this hotel while moving my granddaughter into an apartment nearby. Everything was very nice. Our room was clean and safe and comfortable. Breakfasts were filling and sufficient. My brother stayed in a room  here at the same time. He, too, was pleased.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107999-r194998370-Quality_Inn_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194998370</t>
+  </si>
+  <si>
+    <t>02/22/2014</t>
+  </si>
+  <si>
+    <t>Nice stay at the Quality</t>
+  </si>
+  <si>
+    <t>Hello travelers!!  I had a pleasant stay at this location, At check in the desk was very welcoming and professional. Upon entering my room it was clean and stocked with supplies.  When I went to pay rent I always got greeted with a friendly hello and asked how my day was.  That is always a plus on my list.  I had no problems with the internet at all.  The beds and pillows were comfortable.  Housekeeping was very attentive and cleaned and restocked my supplies without having to ask or mention if or what I needed. I'm not much a breakfast person myself but it is available. It's close enough to various eating places and shopping, but don't forget about that Houston traffic.LOL!! When I checked out I was welcomed back with a friendly smile.  I will return to this location anytime I'm in the area. Hope you enjoy the Quality Inn and feel as comfortable as I did!!  Thanks bunches to the entire staff at Quality Inn. Can't wait till the next visit!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>BestServiceForYou, Manager at Quality Inn &amp; Suites West - Energy Corridor, responded to this reviewResponded February 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2014</t>
+  </si>
+  <si>
+    <t>Hello travelers!!  I had a pleasant stay at this location, At check in the desk was very welcoming and professional. Upon entering my room it was clean and stocked with supplies.  When I went to pay rent I always got greeted with a friendly hello and asked how my day was.  That is always a plus on my list.  I had no problems with the internet at all.  The beds and pillows were comfortable.  Housekeeping was very attentive and cleaned and restocked my supplies without having to ask or mention if or what I needed. I'm not much a breakfast person myself but it is available. It's close enough to various eating places and shopping, but don't forget about that Houston traffic.LOL!! When I checked out I was welcomed back with a friendly smile.  I will return to this location anytime I'm in the area. Hope you enjoy the Quality Inn and feel as comfortable as I did!!  Thanks bunches to the entire staff at Quality Inn. Can't wait till the next visit!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107999-r152122799-Quality_Inn_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152122799</t>
+  </si>
+  <si>
+    <t>02/14/2013</t>
+  </si>
+  <si>
+    <t>OK, but below average</t>
+  </si>
+  <si>
+    <t>Within the Choice Hotels Quality Inn brand, it seems to be hit or miss these days. This one leans toward miss. Not bad, but recently the brand has been making nice improvements. This property is a little behind the curve. Good location for the Energy Corridor. They need to get those pillow top mattresses and improve the TV connections for starts.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>BestServiceForYou, Manager at Quality Inn &amp; Suites West - Energy Corridor, responded to this reviewResponded June 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2013</t>
+  </si>
+  <si>
+    <t>Within the Choice Hotels Quality Inn brand, it seems to be hit or miss these days. This one leans toward miss. Not bad, but recently the brand has been making nice improvements. This property is a little behind the curve. Good location for the Energy Corridor. They need to get those pillow top mattresses and improve the TV connections for starts.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107999-r107824937-Quality_Inn_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>107824937</t>
+  </si>
+  <si>
+    <t>05/11/2011</t>
+  </si>
+  <si>
+    <t>BED BUGS in at least 2 rooms (118 &amp; 125)</t>
+  </si>
+  <si>
+    <t>We are staying in Houston for business for the month of May.  After one night of staying at this hotel I had several bites all over me.  The next afternoon after work I was sitting in the bed on the computer and received MANY more bug bites.  I asked to be switched to another room and after packing/unpacking again was going through the bed making sure it was clean and found an actual adult BED BUG on one of the pillows.  I immediately called my colleague in the next room over to confirm what the bug was.  This was disgusting and we caught the bug in a cup and took it to the front desk and told them we were leaving at 11:45 at night.  We then were contacted the next day and they were basically bribing us with money to not tell anyone or go public with this information...but after seeing the other person post on here about the same issue we couldn't keep it to ourselves.  It obviously is a serious problem here that needs to be taken care of.   The people were very friendly but this is disgusting and I now have spent over $50 for detergent, laundry service, alcohol, benadryl, and cortisone cream to try to prevent the spead and treatment of over 100 awful, itchy bites on my body!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>BestServiceForYou, Manager at Quality Inn &amp; Suites West - Energy Corridor, responded to this reviewResponded May 21, 2011</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2011</t>
+  </si>
+  <si>
+    <t>We are staying in Houston for business for the month of May.  After one night of staying at this hotel I had several bites all over me.  The next afternoon after work I was sitting in the bed on the computer and received MANY more bug bites.  I asked to be switched to another room and after packing/unpacking again was going through the bed making sure it was clean and found an actual adult BED BUG on one of the pillows.  I immediately called my colleague in the next room over to confirm what the bug was.  This was disgusting and we caught the bug in a cup and took it to the front desk and told them we were leaving at 11:45 at night.  We then were contacted the next day and they were basically bribing us with money to not tell anyone or go public with this information...but after seeing the other person post on here about the same issue we couldn't keep it to ourselves.  It obviously is a serious problem here that needs to be taken care of.   The people were very friendly but this is disgusting and I now have spent over $50 for detergent, laundry service, alcohol, benadryl, and cortisone cream to try to prevent the spead and treatment of over 100 awful, itchy bites on my body!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107999-r107435000-Quality_Inn_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>107435000</t>
+  </si>
+  <si>
+    <t>05/08/2011</t>
+  </si>
+  <si>
+    <t>Don't stay at this hotel!!!</t>
+  </si>
+  <si>
+    <t>While sleeping in this hotel I was awakened at 1 am because I was itching so much I couldn't sleep.  I found I had  insect bites in several places.  My wife woke and we found small bugs crawling in her bed.  Not a good nights sleep and not a good place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>While sleeping in this hotel I was awakened at 1 am because I was itching so much I couldn't sleep.  I found I had  insect bites in several places.  My wife woke and we found small bugs crawling in her bed.  Not a good nights sleep and not a good place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107999-r20954400-Quality_Inn_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>20954400</t>
+  </si>
+  <si>
+    <t>10/17/2008</t>
+  </si>
+  <si>
+    <t>OK, but only as a last resort...</t>
+  </si>
+  <si>
+    <t>Some of the other reviewers must have very low standards, because my room was pretty borderline.  For some reason there were 2 TVs in my room which I wouldn't mind, but the one connected to the cable had no remote!  The furniture is old, the air conditioner is unbelievably loud, and there were spiders in one corner of my room.  It definitely wasn't the best night of sleep for me.   The continental breakfast was pretty standard, but one of the employees was watching some kind of sci-fi movie on the tv with the volume turned way up the whole time I was there.  Most travelers would probably rather watch the news or weather...MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>BestServiceForYou, Manager at Quality Inn &amp; Suites West - Energy Corridor, responded to this reviewResponded November 3, 2010</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2010</t>
+  </si>
+  <si>
+    <t>Some of the other reviewers must have very low standards, because my room was pretty borderline.  For some reason there were 2 TVs in my room which I wouldn't mind, but the one connected to the cable had no remote!  The furniture is old, the air conditioner is unbelievably loud, and there were spiders in one corner of my room.  It definitely wasn't the best night of sleep for me.   The continental breakfast was pretty standard, but one of the employees was watching some kind of sci-fi movie on the tv with the volume turned way up the whole time I was there.  Most travelers would probably rather watch the news or weather...More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +852,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +884,883 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>33684</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33684</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>33684</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>33684</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>33684</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33684</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>33684</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>33684</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>108</v>
+      </c>
+      <c r="X9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>33684</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>117</v>
+      </c>
+      <c r="X10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>33684</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>126</v>
+      </c>
+      <c r="X11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33684</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>134</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>126</v>
+      </c>
+      <c r="X12" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>33684</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>142</v>
+      </c>
+      <c r="X13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_519.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_519.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,16 +150,58 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107999-r569381123-Quality_Inn_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107999</t>
+  </si>
+  <si>
+    <t>569381123</t>
+  </si>
+  <si>
+    <t>03/28/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disgusting </t>
+  </si>
+  <si>
+    <t>I should have ran once I saw this hotel! Dirty, dirty and more dirty! Room stunk, bed sheet torn and stained, sticky and moldly bathroom floor, hard bed, baby size pillows. For breakfast stale cornflakes with sour milk, rotten eggs, dried over microwaved sausage as if previous day, or days, reheated sauage, stale bread, rotton old apples.  Omg don't stay here!</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107999-r520623591-Quality_Inn_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>520623591</t>
+  </si>
+  <si>
+    <t>09/02/2017</t>
+  </si>
+  <si>
+    <t>Horrible!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'd rate w/ 0, bc 1 is very good for them! Terrible service, no staff at all at front desk or phone to help me, broken fridge, dated room, trash in front of my door, roaches every single day in my room... It's a long list!! Don't spend your money here! Stay out!! </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107999-r451422478-Quality_Inn_Suites_West_Energy_Corridor-Houston_Texas.html</t>
-  </si>
-  <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>107999</t>
   </si>
   <si>
     <t>451422478</t>
@@ -230,6 +272,45 @@
 Angie came in while we were...July 28, 2016 - approximately 4:00pm - We have been staying at Quality Inns and Super 8's all across the country this summer and when we arrived in Houston there were so many places to choose to stay at. BUT! Because we came in on 45 and then having to work our way over to 6 due to missing an exit, with the heat and gridlock traffic, we relied on what we knew - the Quality Inn.While my husband was taking care of some business I called over to the Quality located on Hwy 6 South. Angie answered the phone. She was willing to look for a room on the ground floor, 1 bed, 2 adults, non smoking, no pets. She said that they had several and would check with the maids to see which ones were ready to rent and to call her back in about 15 mins. So I did.When I called back, an Eastern Indian gentleman answered the phone and said that Angie was still checking the rooms but they had something that we would like and gave me directions to the Inn.When we arrived, we asked for Angie and found that she was still with the maids and the gentlemen that had talked to me on the phone asked us to take a seat and he would be right with us while he checked in another customer.Angie came in while we were being checked in. Once again, we went ahead and took the room they gave us without looking at it first (broke my own rule) and got the key card.Upon entering the room (101) we were amazed at the size. The gentlemen had told me that the room was spacious and he didn't lie. This room was HUGE. It had the living room section and plenty of walking around room, plus a king size bed, microwave and fridge. We don't stay in 5 star hotels and this has been the best room we have stayed in since we have been on the road this summer.Now, to clarify something. The motel is in need of updating. It shows it's wear and tear and not everything is perfect. BUT, the fact that the couple who checked us in were so kind and generous and gave us a good price on the room, we were satisfied with what we got and the room was clean and comfortable. We would later find out that these were the new owners.Babu is the husband and he is very gracious. According to Angie, they are in the process of getting the motel up to speed and changes are being made. She went on to say that good housekeeping help is hard to find and that what they are trying to do is taking time, but they are making progress.Since we were staying next to the office, we were close to the main drag and it wasn't that quiet, but that was okay considering the room itself.The laundry worked here and there was plenty of ice, which was great. The motel wasn't that crowded, which was good for me. The breakfast was good, they had scrambled eggs, sausage links, patties and bacon. Bagels, english muffins, waffles, cereal, toast, oatmeal, etc. Juice and coffee. There was probably more, I just didn't see it. The last Quality Inn and this one were doing breakfast from 6:30 to 9:30am.The motel needs work and some TLC, but I believe the right people have it and they will care for it. It has potential. We enjoyed our stay which were originally only for 1 night and turned into 3 days.Thank you Babu (and his wife) and Angie, if we are ever back in Houston we will definitely stay with you.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107999-r385256587-Quality_Inn_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>385256587</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
+    <t>Stay away!</t>
+  </si>
+  <si>
+    <t>I would stay away from this hotel. I have stayed here in the past and it has gone downhill since then. The rooms are not clean. Sticky bathroom floor, bathroom counter sticky and someone elses hair still there along with dust. Bathroom door with dirty smudges around the handle. Also, the breakfast was dismal..rotten eggs in the fridge and stale donuts. When all issues(more than what I mentioned above), the management said they would make sure they got it cleaned properly and that he would oversee it. Well, when we returned later that night...nothing was done...all they did was change the soap and make the beds. The hair and dust were still in the counter near the sink and the other surfaces still sticky and dirty. I went back to the desk and they apologized again and said they would make sure a deep cleaning was done( as if I would believe them again). Needless to say, I checked out and went to a different hotel and I will never come back to this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>I would stay away from this hotel. I have stayed here in the past and it has gone downhill since then. The rooms are not clean. Sticky bathroom floor, bathroom counter sticky and someone elses hair still there along with dust. Bathroom door with dirty smudges around the handle. Also, the breakfast was dismal..rotten eggs in the fridge and stale donuts. When all issues(more than what I mentioned above), the management said they would make sure they got it cleaned properly and that he would oversee it. Well, when we returned later that night...nothing was done...all they did was change the soap and make the beds. The hair and dust were still in the counter near the sink and the other surfaces still sticky and dirty. I went back to the desk and they apologized again and said they would make sure a deep cleaning was done( as if I would believe them again). Needless to say, I checked out and went to a different hotel and I will never come back to this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107999-r331618026-Quality_Inn_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331618026</t>
+  </si>
+  <si>
+    <t>12/09/2015</t>
+  </si>
+  <si>
+    <t>business trip to Houston</t>
+  </si>
+  <si>
+    <t>I had a 3 day business trip to Houston and was very impressed with this location and the staff. The manager made me feel at home and I will be back in Feb. for another stay. I highly recommend this hotel to any business traveler.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107999-r287465984-Quality_Inn_Suites_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -275,9 +356,6 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107999-r247689314-Quality_Inn_Suites_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -305,6 +383,54 @@
     <t>Hotel staff advised they had remodeled in last 2 years.  This is not true.  I do not think this hotel has ever been remodeled.  The only upgrade I  could see might be the flat screen television that was held in the upright position with the styrofoam from the box it came in.  The stand was broken but was in the room.  You could see out the door through the door seal.  The weatherstripping was flopping in and out of the door.  I refused to walk on the carpet in bare feet.  The microwave did not fit in the shelf so they propped it on the room safe which you are charged for but not told about till you leave.  The sheets ironically were clean but the bed was springy as one could imagine.  I am still using a heating pad for my back and it has been 4 days now.  The lid to the toilet tank was broken into three pieces but it was taped with wide gray tape and covered with a towel that was so thin I doubt it could be used for anything else.  There is no privacy between rooms either next to you or above.  You can literally hear entire conversations.  I was told they have a big breakfast that is free with the rental.  I did not partake but on the day of checkout I noticed the locals were stopping in for breakfast and coffee....Hotel staff advised they had remodeled in last 2 years.  This is not true.  I do not think this hotel has ever been remodeled.  The only upgrade I  could see might be the flat screen television that was held in the upright position with the styrofoam from the box it came in.  The stand was broken but was in the room.  You could see out the door through the door seal.  The weatherstripping was flopping in and out of the door.  I refused to walk on the carpet in bare feet.  The microwave did not fit in the shelf so they propped it on the room safe which you are charged for but not told about till you leave.  The sheets ironically were clean but the bed was springy as one could imagine.  I am still using a heating pad for my back and it has been 4 days now.  The lid to the toilet tank was broken into three pieces but it was taped with wide gray tape and covered with a towel that was so thin I doubt it could be used for anything else.  There is no privacy between rooms either next to you or above.  You can literally hear entire conversations.  I was told they have a big breakfast that is free with the rental.  I did not partake but on the day of checkout I noticed the locals were stopping in for breakfast and coffee.  The line was so long I doubt the paying hotel guest could get to the food before it was gone.  I waited at the desk for sometime to checkout.  Then a gentleman who was dressed quite casually that I noticed was fixing him a plate because he glanced at me a couple of times finally came to the desk sat down his food and decided to assist me.  No thank you, come back or anything else.  I would like to give this hotel a little benefit of the doubt but that just is not possible.  At least the sidewalks were lit and the internet was free that is if you could get onto it.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107999-r240405668-Quality_Inn_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240405668</t>
+  </si>
+  <si>
+    <t>11/18/2014</t>
+  </si>
+  <si>
+    <t>Look Elsewhere!</t>
+  </si>
+  <si>
+    <t>So, I understand that a hotel with the name Quality in it is probably not the best, but I did expect a little better than this!First off, the door to my room barely closed and was left with a huge gap.. not great..Second, the cleanliness was terrible and I honestly slept in my clothes. I would have gone elsewhere, but everything in the area was fully booked. The furniture was dirty, the towels stained, the mirrors disgusting and over all, this was something I would expect to pay maybe $30/night, not $100+But, I will say one thing. The front desk personnel were very friendly and it seems to be a family run business and maybe they have recently purchased the property. If so, then I apologize for being so blunt with my comments and I wish you the best, but if you plan to succeed, please pay more attention to the details, especially cleanliness!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>So, I understand that a hotel with the name Quality in it is probably not the best, but I did expect a little better than this!First off, the door to my room barely closed and was left with a huge gap.. not great..Second, the cleanliness was terrible and I honestly slept in my clothes. I would have gone elsewhere, but everything in the area was fully booked. The furniture was dirty, the towels stained, the mirrors disgusting and over all, this was something I would expect to pay maybe $30/night, not $100+But, I will say one thing. The front desk personnel were very friendly and it seems to be a family run business and maybe they have recently purchased the property. If so, then I apologize for being so blunt with my comments and I wish you the best, but if you plan to succeed, please pay more attention to the details, especially cleanliness!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107999-r210659890-Quality_Inn_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>210659890</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>update your channels</t>
+  </si>
+  <si>
+    <t>upon checking in i asked for a downstairs room and the clerk told me there was a bowling tournament in town and the rooms were booked. he placed us in a 2nd story room, no big deal, i just prefer to be downstairs. the room was clean and cool. after flipping through the channels(or lack thereof) i knew i'd be in for a long weekend. first night went swimming, pool is in need of repairs. hot tub was great. next morning we tried the breakfast, which we enjoyed. bacon,sausage,waffles, fruit &amp; juice. second day i noticed the downstairs rooms were empty and he could have put me downstairs but didn't.... walking distance to dairy queen and there is a starbucks across the street. overall good stay, no problems.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>BestServiceForYou, Manager at Quality Inn &amp; Suites West - Energy Corridor, responded to this reviewResponded June 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2014</t>
+  </si>
+  <si>
+    <t>upon checking in i asked for a downstairs room and the clerk told me there was a bowling tournament in town and the rooms were booked. he placed us in a 2nd story room, no big deal, i just prefer to be downstairs. the room was clean and cool. after flipping through the channels(or lack thereof) i knew i'd be in for a long weekend. first night went swimming, pool is in need of repairs. hot tub was great. next morning we tried the breakfast, which we enjoyed. bacon,sausage,waffles, fruit &amp; juice. second day i noticed the downstairs rooms were empty and he could have put me downstairs but didn't.... walking distance to dairy queen and there is a starbucks across the street. overall good stay, no problems.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107999-r209404603-Quality_Inn_Suites_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -320,9 +446,6 @@
     <t>We spent three nights in this hotel while moving my granddaughter into an apartment nearby. Everything was very nice. Our room was clean and safe and comfortable. Breakfasts were filling and sufficient. My brother stayed in a room  here at the same time. He, too, was pleased.MoreShow less</t>
   </si>
   <si>
-    <t>June 2014</t>
-  </si>
-  <si>
     <t>BestServiceForYou, Manager at Quality Inn &amp; Suites West - Energy Corridor, responded to this reviewResponded June 11, 2014</t>
   </si>
   <si>
@@ -386,6 +509,57 @@
     <t>Within the Choice Hotels Quality Inn brand, it seems to be hit or miss these days. This one leans toward miss. Not bad, but recently the brand has been making nice improvements. This property is a little behind the curve. Good location for the Energy Corridor. They need to get those pillow top mattresses and improve the TV connections for starts.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107999-r146935276-Quality_Inn_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146935276</t>
+  </si>
+  <si>
+    <t>12/07/2012</t>
+  </si>
+  <si>
+    <t>Everything is greart by me</t>
+  </si>
+  <si>
+    <t>I have stayed there many many times, certainly over 300.  Everything has been just the way a hotel should be.  The rooms are clean, plumbing works fine.  New TV's are fantastic.  High Spoeed Internet is great!  Bed is nice, fridgerator and coffee machine work fine to store my cold drinks and pour hot coffee.  The Front Desk personnel are always available to help with a speedy check-in or resolve any issue with a big smile on their face, What more could anyone aske for?MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>BestServiceForYou, Manager at Quality Inn &amp; Suites West - Energy Corridor, responded to this reviewResponded December 15, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2012</t>
+  </si>
+  <si>
+    <t>I have stayed there many many times, certainly over 300.  Everything has been just the way a hotel should be.  The rooms are clean, plumbing works fine.  New TV's are fantastic.  High Spoeed Internet is great!  Bed is nice, fridgerator and coffee machine work fine to store my cold drinks and pour hot coffee.  The Front Desk personnel are always available to help with a speedy check-in or resolve any issue with a big smile on their face, What more could anyone aske for?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107999-r117146693-Quality_Inn_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117146693</t>
+  </si>
+  <si>
+    <t>08/23/2011</t>
+  </si>
+  <si>
+    <t>Everything's broken from toilet to TV to business center!</t>
+  </si>
+  <si>
+    <t>Stayed for 3 nights; toilet wouldn't flush &amp; had to lift flap entire time. Hole in the wall was cut out near floor of bathroom area. TV on-screen guide did not match a single channel. Black mildew on all bathtub caulk. Found one dirty washcloth below shower curtain when I arrived that maid had missed. Maid did not replace shampoo/conditioner/lotion each day--only 1 new shampoo in 3 days. So-called "hot" breakfast of bacon and eggs--~8 strips of precooked pkg bacon &amp; hardboiled eggs in lobby one could heat in microwave to achieve a "hot" breakfast. Pillows only half size--not full so could not fold or sleep beside one. They were maybe 16x16 couch-type pillows. No cold water--it was always lukewarm. AC did work, thankfully, as it was 103 deg. Wanted to print boarding pass but was told business computer was broken. Told that 2 days in a row--never fixed. Room was vacuumed &amp; sheets fresh. Swimming pool size of a really large dining room table &amp; behind a DQ &amp; gas station--so very noisy &amp; not inviting. Chairs flipped helter skelter; it was also next to a trash dumpster.NEVER AGAIN!! Holiday Inn Express all the way!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Stayed for 3 nights; toilet wouldn't flush &amp; had to lift flap entire time. Hole in the wall was cut out near floor of bathroom area. TV on-screen guide did not match a single channel. Black mildew on all bathtub caulk. Found one dirty washcloth below shower curtain when I arrived that maid had missed. Maid did not replace shampoo/conditioner/lotion each day--only 1 new shampoo in 3 days. So-called "hot" breakfast of bacon and eggs--~8 strips of precooked pkg bacon &amp; hardboiled eggs in lobby one could heat in microwave to achieve a "hot" breakfast. Pillows only half size--not full so could not fold or sleep beside one. They were maybe 16x16 couch-type pillows. No cold water--it was always lukewarm. AC did work, thankfully, as it was 103 deg. Wanted to print boarding pass but was told business computer was broken. Told that 2 days in a row--never fixed. Room was vacuumed &amp; sheets fresh. Swimming pool size of a really large dining room table &amp; behind a DQ &amp; gas station--so very noisy &amp; not inviting. Chairs flipped helter skelter; it was also next to a trash dumpster.NEVER AGAIN!! Holiday Inn Express all the way!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107999-r107824937-Quality_Inn_Suites_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -428,9 +602,6 @@
     <t>While sleeping in this hotel I was awakened at 1 am because I was itching so much I couldn't sleep.  I found I had  insect bites in several places.  My wife woke and we found small bugs crawling in her bed.  Not a good nights sleep and not a good place to stay.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>While sleeping in this hotel I was awakened at 1 am because I was itching so much I couldn't sleep.  I found I had  insect bites in several places.  My wife woke and we found small bugs crawling in her bed.  Not a good nights sleep and not a good place to stay.More</t>
   </si>
   <si>
@@ -459,6 +630,56 @@
   </si>
   <si>
     <t>Some of the other reviewers must have very low standards, because my room was pretty borderline.  For some reason there were 2 TVs in my room which I wouldn't mind, but the one connected to the cable had no remote!  The furniture is old, the air conditioner is unbelievably loud, and there were spiders in one corner of my room.  It definitely wasn't the best night of sleep for me.   The continental breakfast was pretty standard, but one of the employees was watching some kind of sci-fi movie on the tv with the volume turned way up the whole time I was there.  Most travelers would probably rather watch the news or weather...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107999-r11175646-Quality_Inn_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>11175646</t>
+  </si>
+  <si>
+    <t>11/30/2007</t>
+  </si>
+  <si>
+    <t>Very nice!</t>
+  </si>
+  <si>
+    <t>Well I have to say, this hotel was a great "fluke". I had not had such a great experience with other Comfort Inn's but this was the exception not the rule.
+I was booked into the Omni down the street (four nights)and needed to arrive earlier and Omni's regular room rate was insane ($100.00 through Hotels.com vs $269.00) so I decided to take my chances. For the one night at Comfort Inn ($109.00) I was absolutely impressed! 
+The staff was very friendly upon check in. We had a room on a ground floor. The property was gated as well. I could see my car right outside the room window. The room was very, very nice! Fresh, clean and well appointed. The bedding was above what I expected. And I am very picky about bedding. 
+We had traveled from Florida by car so we were pretty tired and slept in. The complimentary breakfast was from 7am to 10 am. We checked to see if we could catch the tail end of the breakfast. (We woke up at 9:45) and we were told indeed that we could have breakfast. We hurried down to the lobby area and the staff asked what we would like to have! They had all the regular items and waffles, yogurt and other goodies. We thought it was VERY nice of them to be so accommodating. 
+Our experience here was above our expectations and we would definitely stay...Well I have to say, this hotel was a great "fluke". I had not had such a great experience with other Comfort Inn's but this was the exception not the rule.I was booked into the Omni down the street (four nights)and needed to arrive earlier and Omni's regular room rate was insane ($100.00 through Hotels.com vs $269.00) so I decided to take my chances. For the one night at Comfort Inn ($109.00) I was absolutely impressed! The staff was very friendly upon check in. We had a room on a ground floor. The property was gated as well. I could see my car right outside the room window. The room was very, very nice! Fresh, clean and well appointed. The bedding was above what I expected. And I am very picky about bedding. We had traveled from Florida by car so we were pretty tired and slept in. The complimentary breakfast was from 7am to 10 am. We checked to see if we could catch the tail end of the breakfast. (We woke up at 9:45) and we were told indeed that we could have breakfast. We hurried down to the lobby area and the staff asked what we would like to have! They had all the regular items and waffles, yogurt and other goodies. We thought it was VERY nice of them to be so accommodating. Our experience here was above our expectations and we would definitely stay with them again! As an aside, Omni albeit a luxury hotel, this particular Comfort Inn was more in line with its price and amenities, The room was as nice if not nicer. Should I visit Houston again, I will stay with them again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>Well I have to say, this hotel was a great "fluke". I had not had such a great experience with other Comfort Inn's but this was the exception not the rule.
+I was booked into the Omni down the street (four nights)and needed to arrive earlier and Omni's regular room rate was insane ($100.00 through Hotels.com vs $269.00) so I decided to take my chances. For the one night at Comfort Inn ($109.00) I was absolutely impressed! 
+The staff was very friendly upon check in. We had a room on a ground floor. The property was gated as well. I could see my car right outside the room window. The room was very, very nice! Fresh, clean and well appointed. The bedding was above what I expected. And I am very picky about bedding. 
+We had traveled from Florida by car so we were pretty tired and slept in. The complimentary breakfast was from 7am to 10 am. We checked to see if we could catch the tail end of the breakfast. (We woke up at 9:45) and we were told indeed that we could have breakfast. We hurried down to the lobby area and the staff asked what we would like to have! They had all the regular items and waffles, yogurt and other goodies. We thought it was VERY nice of them to be so accommodating. 
+Our experience here was above our expectations and we would definitely stay...Well I have to say, this hotel was a great "fluke". I had not had such a great experience with other Comfort Inn's but this was the exception not the rule.I was booked into the Omni down the street (four nights)and needed to arrive earlier and Omni's regular room rate was insane ($100.00 through Hotels.com vs $269.00) so I decided to take my chances. For the one night at Comfort Inn ($109.00) I was absolutely impressed! The staff was very friendly upon check in. We had a room on a ground floor. The property was gated as well. I could see my car right outside the room window. The room was very, very nice! Fresh, clean and well appointed. The bedding was above what I expected. And I am very picky about bedding. We had traveled from Florida by car so we were pretty tired and slept in. The complimentary breakfast was from 7am to 10 am. We checked to see if we could catch the tail end of the breakfast. (We woke up at 9:45) and we were told indeed that we could have breakfast. We hurried down to the lobby area and the staff asked what we would like to have! They had all the regular items and waffles, yogurt and other goodies. We thought it was VERY nice of them to be so accommodating. Our experience here was above our expectations and we would definitely stay with them again! As an aside, Omni albeit a luxury hotel, this particular Comfort Inn was more in line with its price and amenities, The room was as nice if not nicer. Should I visit Houston again, I will stay with them again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107999-r5602173-Quality_Inn_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>5602173</t>
+  </si>
+  <si>
+    <t>08/11/2006</t>
+  </si>
+  <si>
+    <t>Bleh bleh bleh, dont stay here</t>
+  </si>
+  <si>
+    <t>First they gave us a room and it smelled strongly like cat urine, it was incredibly disgusting so we got a different room instead and it didn't smell like cat pee but it was still stinky (musty smelling).  The air conditioner was sputtering on/off; also there was stains on the bedsheets. For the price I'm sure there are plenty of better hotels in the area.  I notice there is a Drury Inn just down the street that gets good reviews on tripadvisor.com and has similar room rate.  Anyways, for the price dont stay here.  The front desk lady was nice, but both rooms we were assigned she told us were on the opposite side of the building than they were actually on, maybe she was just dsylexic.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2006</t>
+  </si>
+  <si>
+    <t>First they gave us a room and it smelled strongly like cat urine, it was incredibly disgusting so we got a different room instead and it didn't smell like cat pee but it was still stinky (musty smelling).  The air conditioner was sputtering on/off; also there was stains on the bedsheets. For the price I'm sure there are plenty of better hotels in the area.  I notice there is a Drury Inn just down the street that gets good reviews on tripadvisor.com and has similar room rate.  Anyways, for the price dont stay here.  The front desk lady was nice, but both rooms we were assigned she told us were on the opposite side of the building than they were actually on, maybe she was just dsylexic.More</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1214,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1002,17 +1223,11 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1056,7 +1271,7 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
@@ -1065,24 +1280,18 @@
         <v>60</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1098,7 +1307,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1107,37 +1316,37 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>59</v>
-      </c>
       <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="n">
         <v>4</v>
       </c>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1145,7 +1354,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1182,37 +1391,33 @@
         <v>72</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
         <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
       <c r="R5" t="s"/>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
         <v>75</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -1228,7 +1433,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1237,33 +1442,33 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
         <v>78</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>79</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>80</v>
       </c>
-      <c r="L6" t="s">
-        <v>81</v>
-      </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="O6" t="s">
-        <v>83</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
       <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
@@ -1291,7 +1496,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1300,49 +1505,39 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
         <v>85</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>86</v>
-      </c>
-      <c r="K7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" t="s">
-        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>3</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>90</v>
-      </c>
-      <c r="X7" t="s">
-        <v>91</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -1358,7 +1553,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1367,25 +1562,25 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>94</v>
       </c>
-      <c r="J8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K8" t="s">
-        <v>96</v>
-      </c>
-      <c r="L8" t="s">
-        <v>97</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>98</v>
-      </c>
       <c r="O8" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -1393,12 +1588,8 @@
       <c r="Q8" t="n">
         <v>5</v>
       </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>5</v>
@@ -1406,14 +1597,10 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>99</v>
-      </c>
-      <c r="X8" t="s">
-        <v>100</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -1429,7 +1616,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1438,53 +1625,49 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="X9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
@@ -1500,7 +1683,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1509,53 +1692,45 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R10" t="n">
-        <v>4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>117</v>
-      </c>
-      <c r="X10" t="s">
-        <v>118</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
@@ -1571,7 +1746,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1580,53 +1755,49 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
       <c r="R11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="X11" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
@@ -1642,7 +1813,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1651,45 +1822,45 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>126</v>
-      </c>
-      <c r="X12" t="s">
-        <v>127</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -1705,7 +1876,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1714,53 +1885,739 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R13" t="n">
         <v>4</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
+        <v>132</v>
+      </c>
+      <c r="X13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>33684</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>140</v>
+      </c>
+      <c r="X14" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y14" t="s">
         <v>142</v>
       </c>
-      <c r="X13" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33684</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
         <v>143</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
         <v>144</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>148</v>
+      </c>
+      <c r="O15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>149</v>
+      </c>
+      <c r="X15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>33684</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>157</v>
+      </c>
+      <c r="O16" t="s">
+        <v>67</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>158</v>
+      </c>
+      <c r="X16" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>33684</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>167</v>
+      </c>
+      <c r="X17" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33684</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" t="s">
+        <v>174</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>175</v>
+      </c>
+      <c r="O18" t="s">
+        <v>176</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33684</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" t="s">
+        <v>182</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>183</v>
+      </c>
+      <c r="O19" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>184</v>
+      </c>
+      <c r="X19" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>33684</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" t="s">
+        <v>189</v>
+      </c>
+      <c r="K20" t="s">
+        <v>190</v>
+      </c>
+      <c r="L20" t="s">
+        <v>191</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>183</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>184</v>
+      </c>
+      <c r="X20" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>33684</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J21" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" t="s">
+        <v>197</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>198</v>
+      </c>
+      <c r="O21" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>199</v>
+      </c>
+      <c r="X21" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>33684</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>203</v>
+      </c>
+      <c r="J22" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" t="s">
+        <v>205</v>
+      </c>
+      <c r="L22" t="s">
+        <v>206</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>207</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>33684</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>210</v>
+      </c>
+      <c r="J23" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" t="s">
+        <v>212</v>
+      </c>
+      <c r="L23" t="s">
+        <v>213</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>214</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
